--- a/topologi16nodes.xlsx
+++ b/topologi16nodes.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FULL MATERI\TINGKAT 4\SEMESTER 8\TA\IMPORTANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC2721FA-A7B2-4D91-BBF8-707995A58585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919A64AF-54C3-4C21-B6A2-96B071CDA17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7FA5A2AB-BA87-4E6A-8C45-A2C92B460891}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7FA5A2AB-BA87-4E6A-8C45-A2C92B460891}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -221,9 +210,6 @@
     <t>192.168.1.70</t>
   </si>
   <si>
-    <t>192.169.1.73</t>
-  </si>
-  <si>
     <t>makassar</t>
   </si>
   <si>
@@ -276,6 +262,9 @@
   </si>
   <si>
     <t>192.168.1.98</t>
+  </si>
+  <si>
+    <t>192.168.1.73</t>
   </si>
 </sst>
 </file>
@@ -298,12 +287,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -319,10 +314,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,7 +628,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,18 +638,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7021CA-D644-4897-895E-949046F27856}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="5" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -691,7 +689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -711,7 +709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -731,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -751,7 +749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -771,7 +769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -791,7 +789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -811,7 +809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -831,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -851,7 +849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -871,7 +869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -891,7 +889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -911,7 +909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -931,7 +929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -951,7 +949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -971,7 +969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -991,7 +989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1011,7 +1009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1031,7 +1029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1051,7 +1049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1071,7 +1069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1091,7 +1089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1111,7 +1109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1131,7 +1129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1151,7 +1149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1171,7 +1169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -1191,7 +1189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1211,7 +1209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1231,7 +1229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1251,7 +1249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -1271,7 +1269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -1291,7 +1289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1311,7 +1309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1331,7 +1329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -1351,27 +1349,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1391,7 +1389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1411,7 +1409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1419,19 +1417,19 @@
         <v>18</v>
       </c>
       <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" t="s">
         <v>64</v>
       </c>
-      <c r="D39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" t="s">
-        <v>65</v>
-      </c>
       <c r="F39">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1439,235 +1437,235 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" t="s">
         <v>66</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>67</v>
       </c>
-      <c r="E40" t="s">
-        <v>68</v>
-      </c>
       <c r="F40">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>61</v>
-      </c>
-      <c r="F41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>62</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
         <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F42">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
         <v>69</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>70</v>
       </c>
-      <c r="E43" t="s">
-        <v>71</v>
-      </c>
       <c r="F43">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
       </c>
       <c r="C44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" t="s">
         <v>72</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>73</v>
       </c>
-      <c r="E44" t="s">
-        <v>74</v>
-      </c>
       <c r="F44">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45" t="s">
         <v>39</v>
       </c>
       <c r="E45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="B49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C50" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="F50" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="E51" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51">
+      <c r="F51" s="5">
         <v>10</v>
       </c>
     </row>

--- a/topologi16nodes.xlsx
+++ b/topologi16nodes.xlsx
@@ -1,31 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FULL MATERI\TINGKAT 4\SEMESTER 8\TA\IMPORTANT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919A64AF-54C3-4C21-B6A2-96B071CDA17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7FA5A2AB-BA87-4E6A-8C45-A2C92B460891}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>site</t>
   </si>
@@ -39,10 +27,10 @@
     <t>neighbor</t>
   </si>
   <si>
-    <t>neighbor ip</t>
-  </si>
-  <si>
-    <t>link cost</t>
+    <t xml:space="preserve">neighbor ip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link cost</t>
   </si>
   <si>
     <t>medan</t>
@@ -72,9 +60,6 @@
     <t>192.168.1.6</t>
   </si>
   <si>
-    <t xml:space="preserve">batam </t>
-  </si>
-  <si>
     <t>192.168.1.9</t>
   </si>
   <si>
@@ -138,9 +123,6 @@
     <t>192.168.1.34</t>
   </si>
   <si>
-    <t xml:space="preserve">pontianak </t>
-  </si>
-  <si>
     <t>192.168.1.37</t>
   </si>
   <si>
@@ -210,6 +192,9 @@
     <t>192.168.1.70</t>
   </si>
   <si>
+    <t>192.168.1.73</t>
+  </si>
+  <si>
     <t>makassar</t>
   </si>
   <si>
@@ -255,35 +240,21 @@
     <t>192.168.1.94</t>
   </si>
   <si>
-    <t xml:space="preserve">manado </t>
-  </si>
-  <si>
     <t>192.168.1.97</t>
   </si>
   <si>
     <t>192.168.1.98</t>
-  </si>
-  <si>
-    <t>192.168.1.73</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -297,7 +268,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -311,20 +282,22 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="8">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{146323B9-68D0-4769-A651-0F7AA75FA421}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -332,15 +305,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -382,108 +635,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,7 +650,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -517,7 +676,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -569,16 +728,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -594,7 +765,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -625,31 +796,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7021CA-D644-4897-895E-949046F27856}">
-  <dimension ref="A1:F51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="5" width="18.33203125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="18.33203125"/>
+    <col customWidth="1" min="2" max="2" width="18.44140625"/>
+    <col customWidth="1" min="3" max="5" width="18.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,14 +826,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -689,7 +853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -709,7 +873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -729,67 +893,67 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
       <c r="F6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -809,7 +973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -817,859 +981,862 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
       <c r="F10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>23</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
       <c r="F15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>19</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
       <c r="F18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>30</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
         <v>41</v>
       </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>43</v>
       </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
-      </c>
       <c r="F21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
         <v>34</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
         <v>46</v>
       </c>
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
       <c r="F24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F25">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
         <v>49</v>
       </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D27" t="s">
         <v>50</v>
       </c>
-      <c r="F26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" t="s">
-        <v>53</v>
-      </c>
       <c r="F27">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>52</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F33">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
         <v>58</v>
       </c>
-      <c r="D34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="F35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="1">
+      <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="F36" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F37">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
         <v>60</v>
       </c>
-      <c r="D38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>63</v>
       </c>
-      <c r="D39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
         <v>64</v>
       </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>65</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>66</v>
       </c>
-      <c r="E40" t="s">
-        <v>67</v>
-      </c>
       <c r="F40">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" s="3" customFormat="1">
       <c r="A41" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F41" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F42">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" t="s">
         <v>68</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>69</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
         <v>70</v>
       </c>
-      <c r="F43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>71</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>72</v>
       </c>
-      <c r="E44" t="s">
-        <v>73</v>
-      </c>
       <c r="F44">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="1">
+      <c r="A46" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="F45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="F46" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" s="3" customFormat="1">
       <c r="A47" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" s="3" customFormat="1">
+      <c r="A48" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F47" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" s="6" customFormat="1">
+      <c r="A49" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="D49" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="F49" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" s="6" customFormat="1">
+      <c r="A50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="5" t="s">
+      <c r="D50" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" s="6" customFormat="1">
+      <c r="A51" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="C51" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" s="5">
+      <c r="D51" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="6">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>